--- a/text_files/text_for_pptx.xlsx
+++ b/text_files/text_for_pptx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ophirbetser/Ophir/R PROJECTS/pptx_from_R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ophirbetser/Ophir/R PROJECTS/pptx_from_R/text_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA0297-55C2-E54A-A650-8DC0F08F8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B87CEC2-1098-7D49-AD09-87937FBC9E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{9A26A16B-AF14-A84D-ABE4-F7BB9E9413C3}"/>
+    <workbookView xWindow="80000" yWindow="-580" windowWidth="38400" windowHeight="21100" xr2:uid="{9A26A16B-AF14-A84D-ABE4-F7BB9E9413C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>שלום רב! קוראים לי אופיר בצר</t>
   </si>
   <si>
@@ -64,6 +52,18 @@
   </si>
   <si>
     <t>חיילים, בשם הדמוקרטיה הבה נתאחד</t>
+  </si>
+  <si>
+    <t>analysis_number</t>
+  </si>
+  <si>
+    <t>page_number</t>
+  </si>
+  <si>
+    <t>title_text</t>
+  </si>
+  <si>
+    <t>main_text</t>
   </si>
 </sst>
 </file>
@@ -442,23 +442,23 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -469,10 +469,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,10 +483,10 @@
         <v>4.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -497,10 +497,10 @@
         <v>4.3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,10 +511,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -525,10 +525,10 @@
         <v>4.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
